--- a/utils/yahoofinance/ZROZ_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/ZROZ_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>92.220001</v>
       </c>
       <c r="F4" t="n">
-        <v>90.74148599999999</v>
+        <v>90.741478</v>
       </c>
       <c r="G4" t="n">
         <v>120100</v>
@@ -789,7 +789,7 @@
         <v>95</v>
       </c>
       <c r="F14" t="n">
-        <v>93.476906</v>
+        <v>93.476913</v>
       </c>
       <c r="G14" t="n">
         <v>276900</v>
@@ -814,7 +814,7 @@
         <v>94.550003</v>
       </c>
       <c r="F15" t="n">
-        <v>93.034126</v>
+        <v>93.03413399999999</v>
       </c>
       <c r="G15" t="n">
         <v>613600</v>
@@ -839,7 +839,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>94.883987</v>
+        <v>94.88397999999999</v>
       </c>
       <c r="G16" t="n">
         <v>128400</v>
@@ -1164,7 +1164,7 @@
         <v>92.44000200000001</v>
       </c>
       <c r="F29" t="n">
-        <v>90.957954</v>
+        <v>90.95796199999999</v>
       </c>
       <c r="G29" t="n">
         <v>148600</v>
@@ -1239,7 +1239,7 @@
         <v>92.08000199999999</v>
       </c>
       <c r="F32" t="n">
-        <v>90.603729</v>
+        <v>90.603722</v>
       </c>
       <c r="G32" t="n">
         <v>191800</v>
@@ -1264,7 +1264,7 @@
         <v>90.029999</v>
       </c>
       <c r="F33" t="n">
-        <v>88.586586</v>
+        <v>88.58659400000001</v>
       </c>
       <c r="G33" t="n">
         <v>335500</v>
@@ -1289,7 +1289,7 @@
         <v>91.08000199999999</v>
       </c>
       <c r="F34" t="n">
-        <v>89.619766</v>
+        <v>89.619759</v>
       </c>
       <c r="G34" t="n">
         <v>179300</v>
@@ -1364,7 +1364,7 @@
         <v>91.349998</v>
       </c>
       <c r="F37" t="n">
-        <v>89.885429</v>
+        <v>89.88542200000001</v>
       </c>
       <c r="G37" t="n">
         <v>106600</v>
@@ -1389,7 +1389,7 @@
         <v>89.599998</v>
       </c>
       <c r="F38" t="n">
-        <v>88.163483</v>
+        <v>88.16349</v>
       </c>
       <c r="G38" t="n">
         <v>147200</v>
@@ -1439,7 +1439,7 @@
         <v>90.620003</v>
       </c>
       <c r="F40" t="n">
-        <v>89.167137</v>
+        <v>89.16713</v>
       </c>
       <c r="G40" t="n">
         <v>97500</v>
@@ -1489,7 +1489,7 @@
         <v>88.410004</v>
       </c>
       <c r="F42" t="n">
-        <v>86.992569</v>
+        <v>86.99256099999999</v>
       </c>
       <c r="G42" t="n">
         <v>185200</v>
@@ -1764,7 +1764,7 @@
         <v>96.480003</v>
       </c>
       <c r="F53" t="n">
-        <v>94.933182</v>
+        <v>94.933189</v>
       </c>
       <c r="G53" t="n">
         <v>171500</v>
@@ -1789,7 +1789,7 @@
         <v>95.489998</v>
       </c>
       <c r="F54" t="n">
-        <v>93.959053</v>
+        <v>93.959045</v>
       </c>
       <c r="G54" t="n">
         <v>102800</v>
@@ -5643,6 +5643,31 @@
       </c>
       <c r="G208" t="n">
         <v>312600</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>65.730003</v>
+      </c>
+      <c r="C209" t="n">
+        <v>66.550003</v>
+      </c>
+      <c r="D209" t="n">
+        <v>65</v>
+      </c>
+      <c r="E209" t="n">
+        <v>66.010002</v>
+      </c>
+      <c r="F209" t="n">
+        <v>66.010002</v>
+      </c>
+      <c r="G209" t="n">
+        <v>462400</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/ZROZ_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/ZROZ_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>92.220001</v>
       </c>
       <c r="F4" t="n">
-        <v>90.741478</v>
+        <v>90.74148599999999</v>
       </c>
       <c r="G4" t="n">
         <v>120100</v>
@@ -789,7 +789,7 @@
         <v>95</v>
       </c>
       <c r="F14" t="n">
-        <v>93.476913</v>
+        <v>93.476906</v>
       </c>
       <c r="G14" t="n">
         <v>276900</v>
@@ -814,7 +814,7 @@
         <v>94.550003</v>
       </c>
       <c r="F15" t="n">
-        <v>93.03413399999999</v>
+        <v>93.034126</v>
       </c>
       <c r="G15" t="n">
         <v>613600</v>
@@ -839,7 +839,7 @@
         <v>96.43000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>94.88397999999999</v>
+        <v>94.883987</v>
       </c>
       <c r="G16" t="n">
         <v>128400</v>
@@ -1164,7 +1164,7 @@
         <v>92.44000200000001</v>
       </c>
       <c r="F29" t="n">
-        <v>90.95796199999999</v>
+        <v>90.957954</v>
       </c>
       <c r="G29" t="n">
         <v>148600</v>
@@ -1239,7 +1239,7 @@
         <v>92.08000199999999</v>
       </c>
       <c r="F32" t="n">
-        <v>90.603722</v>
+        <v>90.603729</v>
       </c>
       <c r="G32" t="n">
         <v>191800</v>
@@ -1264,7 +1264,7 @@
         <v>90.029999</v>
       </c>
       <c r="F33" t="n">
-        <v>88.58659400000001</v>
+        <v>88.586586</v>
       </c>
       <c r="G33" t="n">
         <v>335500</v>
@@ -1289,7 +1289,7 @@
         <v>91.08000199999999</v>
       </c>
       <c r="F34" t="n">
-        <v>89.619759</v>
+        <v>89.619766</v>
       </c>
       <c r="G34" t="n">
         <v>179300</v>
@@ -1364,7 +1364,7 @@
         <v>91.349998</v>
       </c>
       <c r="F37" t="n">
-        <v>89.88542200000001</v>
+        <v>89.885429</v>
       </c>
       <c r="G37" t="n">
         <v>106600</v>
@@ -1389,7 +1389,7 @@
         <v>89.599998</v>
       </c>
       <c r="F38" t="n">
-        <v>88.16349</v>
+        <v>88.163483</v>
       </c>
       <c r="G38" t="n">
         <v>147200</v>
@@ -1439,7 +1439,7 @@
         <v>90.620003</v>
       </c>
       <c r="F40" t="n">
-        <v>89.16713</v>
+        <v>89.167137</v>
       </c>
       <c r="G40" t="n">
         <v>97500</v>
@@ -1489,7 +1489,7 @@
         <v>88.410004</v>
       </c>
       <c r="F42" t="n">
-        <v>86.99256099999999</v>
+        <v>86.992569</v>
       </c>
       <c r="G42" t="n">
         <v>185200</v>
@@ -1764,7 +1764,7 @@
         <v>96.480003</v>
       </c>
       <c r="F53" t="n">
-        <v>94.933189</v>
+        <v>94.933182</v>
       </c>
       <c r="G53" t="n">
         <v>171500</v>
@@ -1789,7 +1789,7 @@
         <v>95.489998</v>
       </c>
       <c r="F54" t="n">
-        <v>93.959045</v>
+        <v>93.959053</v>
       </c>
       <c r="G54" t="n">
         <v>102800</v>
@@ -5668,6 +5668,156 @@
       </c>
       <c r="G209" t="n">
         <v>462400</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>66.41999800000001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>66.949997</v>
+      </c>
+      <c r="D210" t="n">
+        <v>65.33000199999999</v>
+      </c>
+      <c r="E210" t="n">
+        <v>65.41999800000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>65.41999800000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>431700</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>66.33000199999999</v>
+      </c>
+      <c r="C211" t="n">
+        <v>67.629997</v>
+      </c>
+      <c r="D211" t="n">
+        <v>66.33000199999999</v>
+      </c>
+      <c r="E211" t="n">
+        <v>67.449997</v>
+      </c>
+      <c r="F211" t="n">
+        <v>67.449997</v>
+      </c>
+      <c r="G211" t="n">
+        <v>433200</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>69.620003</v>
+      </c>
+      <c r="C212" t="n">
+        <v>70.489998</v>
+      </c>
+      <c r="D212" t="n">
+        <v>69.05999799999999</v>
+      </c>
+      <c r="E212" t="n">
+        <v>70.150002</v>
+      </c>
+      <c r="F212" t="n">
+        <v>70.150002</v>
+      </c>
+      <c r="G212" t="n">
+        <v>566200</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>72.449997</v>
+      </c>
+      <c r="C213" t="n">
+        <v>72.639999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>70.66999800000001</v>
+      </c>
+      <c r="E213" t="n">
+        <v>70.760002</v>
+      </c>
+      <c r="F213" t="n">
+        <v>70.760002</v>
+      </c>
+      <c r="G213" t="n">
+        <v>817600</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>70.010002</v>
+      </c>
+      <c r="C214" t="n">
+        <v>70.129997</v>
+      </c>
+      <c r="D214" t="n">
+        <v>69.43000000000001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>69.80999799999999</v>
+      </c>
+      <c r="F214" t="n">
+        <v>69.80999799999999</v>
+      </c>
+      <c r="G214" t="n">
+        <v>475100</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>70.849998</v>
+      </c>
+      <c r="C215" t="n">
+        <v>71.620003</v>
+      </c>
+      <c r="D215" t="n">
+        <v>70.889999</v>
+      </c>
+      <c r="E215" t="n">
+        <v>71.596901</v>
+      </c>
+      <c r="F215" t="n">
+        <v>71.596901</v>
+      </c>
+      <c r="G215" t="n">
+        <v>126530</v>
       </c>
     </row>
   </sheetData>
